--- a/9семестр/КИС/1.xlsx
+++ b/9семестр/КИС/1.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="общее" sheetId="1" r:id="rId1"/>
-    <sheet name="КР" sheetId="2" r:id="rId2"/>
-    <sheet name="Лаба" sheetId="3" r:id="rId3"/>
+    <sheet name="Лаба" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>λ- 10-5 , час-1</t>
   </si>
@@ -79,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -167,13 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -674,14 +672,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31223600174978128"/>
-          <c:y val="3.2407407407407406E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -722,7 +713,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>общее!$C$20</c:f>
+              <c:f>Лаба!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -743,9 +734,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>общее!$D$20:$L$20</c:f>
+              <c:f>Лаба!$D$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -753,28 +744,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.24008903888353</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>279.24478670658573</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>395.01799571015295</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>497.33063152861729</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>587.74771107764491</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>667.65229186354782</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>738.26662780998686</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>800.67086536574197</c:v>
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаба!$D$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>888.39973830122233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1509.1456246411108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1942.8754410689096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2245.9327110376494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2457.6859855469529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2605.6430012952883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2709.0240638072237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2781.2588546486095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,7 +809,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A977-4E5C-8CDC-4E899C4C9903}"/>
+              <c16:uniqueId val="{00000000-D7F9-48C6-86A8-CA783464539C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -791,7 +818,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>общее!$C$21</c:f>
+              <c:f>Лаба!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -812,9 +839,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>общее!$D$21:$L$21</c:f>
+              <c:f>Лаба!$D$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -822,28 +849,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.67266523671765</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222.55076395451593</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>285.2731886256837</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>328.56307488141152</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>358.44097360517225</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>379.06216043097936</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>393.29453165749629</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>403.11745758511006</c:v>
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаба!$D$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>647.62514702296983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>868.54766709842954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>943.91033653899854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>969.61858911220145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>978.38837202028708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>981.37998306175928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>982.40050280748835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>982.74862979892714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,7 +914,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A977-4E5C-8CDC-4E899C4C9903}"/>
+              <c16:uniqueId val="{00000001-D7F9-48C6-86A8-CA783464539C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -860,7 +923,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>общее!$C$22</c:f>
+              <c:f>Лаба!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -881,9 +944,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>общее!$D$22:$L$22</c:f>
+              <c:f>Лаба!$D$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -891,28 +954,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117.54954221552893</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180.91126139152686</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.06458416310338</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233.47395612315822</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>243.39700162682161</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>248.7457355369967</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>251.62881759394136</c:v>
+                  <c:v>10500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>253.18286052946002</c:v>
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лаба!$D$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>491.53719710939055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>573.39941934807871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>587.03302321217222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>589.30360846187466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>589.68175920085457</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>589.74473766925166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>589.75522631061278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>589.75697312345858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,7 +1019,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A977-4E5C-8CDC-4E899C4C9903}"/>
+              <c16:uniqueId val="{00000002-D7F9-48C6-86A8-CA783464539C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -933,11 +1032,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="303640624"/>
-        <c:axId val="303641456"/>
+        <c:axId val="522040239"/>
+        <c:axId val="522048559"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="303640624"/>
+        <c:axId val="522040239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +1079,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303641456"/>
+        <c:crossAx val="522048559"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -988,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303641456"/>
+        <c:axId val="522048559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,468 +1138,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303640624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31223600174978128"/>
-          <c:y val="3.2407407407407406E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>общее!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rc(T) при n</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>общее!$D$20:$L$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>148.24008903888353</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>279.24478670658573</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>395.01799571015295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>497.33063152861729</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>587.74771107764491</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>667.65229186354782</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>738.26662780998686</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800.67086536574197</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BF5-4B1F-9E4E-D91C88E1E516}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>общее!$C$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rc(T) при 3n</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>общее!$D$21:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>131.67266523671765</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>222.55076395451593</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>285.2731886256837</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>328.56307488141152</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>358.44097360517225</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>379.06216043097936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>393.29453165749629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>403.11745758511006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2BF5-4B1F-9E4E-D91C88E1E516}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>общее!$C$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rc(T) при 5n</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>общее!$D$22:$L$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>117.54954221552893</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>180.91126139152686</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>215.06458416310338</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>233.47395612315822</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>243.39700162682161</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>248.7457355369967</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251.62881759394136</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>253.18286052946002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2BF5-4B1F-9E4E-D91C88E1E516}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="303640624"/>
-        <c:axId val="303641456"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="303640624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="303641456"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="303641456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="303640624"/>
+        <c:crossAx val="522040239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1661,46 +1299,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2218,522 +1816,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3288,60 +2370,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>455542</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>77856</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>124238</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>154056</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>455542</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>77856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>124238</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>154056</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3624,7 +2667,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="A1:XFD1048576"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,400 +3069,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="K2" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2050</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1500</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3850</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3180</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3200</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3680</v>
-      </c>
-      <c r="L3" s="1">
-        <v>3000</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3700</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <f>SUM(E2:N2)*10^(-5)</f>
-        <v>2.3900000000000004E-4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <f>1/C8</f>
-        <v>4184.1004184100411</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="2">
-        <f>EXP(-C8*B3)</f>
-        <v>0.61265702626992102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="J9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="2">
-        <f>EXP(-C8*H8)</f>
-        <v>0.36787944117144233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3">
-        <f>SUMPRODUCT(E2:N2,E3:N3)*10^(-5)</f>
-        <v>0.70476000000000005</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <f>(1-EXP(-C8*B3))/C8*C10</f>
-        <v>1142.1917747531818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <f>(1-EXP(-C8*H8))/C8*C10</f>
-        <v>1863.9886403347878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f>C8/B2</f>
-        <v>2.9875000000000004E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="e">
-        <f>-LN(1-B4*C8/C10)/C8</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1">
-        <v>6</v>
-      </c>
-      <c r="J18" s="1">
-        <v>7</v>
-      </c>
-      <c r="K18" s="1">
-        <v>8</v>
-      </c>
-      <c r="L18" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H19" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I19" s="1">
-        <v>7500</v>
-      </c>
-      <c r="J19" s="1">
-        <v>9000</v>
-      </c>
-      <c r="K19" s="1">
-        <v>10500</v>
-      </c>
-      <c r="L19" s="1">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4">
-        <f>(1-EXP(-$B$2*$F$14*D19))/$B$2/$F$14*$C$10</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <f>(1-EXP(-$B$2*$F$14*E19))/$B$2/$F$14*$C$10</f>
-        <v>888.39973830122199</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" ref="E20:L20" si="0">(1-EXP(-$B$2*$F$14*F19))/$B$2/$F$14*$C$10</f>
-        <v>1509.1456246411103</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>1942.8754410689094</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>2245.9327110376494</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
-        <v>2457.6859855469525</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="0"/>
-        <v>2605.6430012952887</v>
-      </c>
-      <c r="K20" s="4">
-        <f>(1-EXP(-$B$2*$F$14*K19))/$B$2/$F$14*$C$10</f>
-        <v>2709.0240638072241</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="0"/>
-        <v>2781.2588546486095</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4">
-        <f>(1-EXP(-3*$B$2*$F$14*D19))/3/$B$2/$F$14*$C$10</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" ref="E21:L21" si="1">(1-EXP(-3*$B$2*$F$14*E19))/3/$B$2/$F$14*$C$10</f>
-        <v>647.62514702296983</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="1"/>
-        <v>868.54766709842954</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="1"/>
-        <v>943.91033653899854</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="1"/>
-        <v>969.61858911220145</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="1"/>
-        <v>978.38837202028708</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="1"/>
-        <v>981.37998306175928</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>982.40050280748846</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="1"/>
-        <v>982.74862979892714</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="4">
-        <f>(1-EXP(-5*$B$2*$F$14*D19))/5/$B$2/$F$14*$C$10</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" ref="E22:L22" si="2">(1-EXP(-5*$B$2*$F$14*E19))/5/$B$2/$F$14*$C$10</f>
-        <v>491.53719710939055</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="2"/>
-        <v>573.39941934807871</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="2"/>
-        <v>587.03302321217234</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="2"/>
-        <v>589.30360846187466</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="2"/>
-        <v>589.68175920085457</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="2"/>
-        <v>589.74473766925166</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="2"/>
-        <v>589.75522631061278</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="2"/>
-        <v>589.75697312345858</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,28 +3108,28 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>3.1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>2.5</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>3.2</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>2.6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>2.4</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>3.8</v>
       </c>
       <c r="M2" s="1"/>
@@ -4489,35 +3139,35 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>2050</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1500</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>2000</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>3100</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>3850</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>3180</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>3200</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>3680</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>3000</v>
       </c>
       <c r="M3" s="1"/>
@@ -4527,7 +3177,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3700</v>
       </c>
       <c r="C4" s="1"/>

--- a/9семестр/КИС/1.xlsx
+++ b/9семестр/КИС/1.xlsx
@@ -77,8 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -166,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -179,6 +180,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -590,7 +592,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -774,7 +775,7 @@
             <c:numRef>
               <c:f>Лаба!$D$20:$L$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -879,7 +880,7 @@
             <c:numRef>
               <c:f>Лаба!$D$21:$L$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -984,7 +985,7 @@
             <c:numRef>
               <c:f>Лаба!$D$22:$L$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1107,7 +1108,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2666,7 +2667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -3068,17 +3069,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3332,39 +3336,39 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="8">
         <f>(1-EXP(-$B$2*$F$14*D19))/$B$2/$F$14*$C$10</f>
         <v>0</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="8">
         <f t="shared" ref="E20:L20" si="0">(1-EXP(-$B$2*$F$14*E19))/$B$2/$F$14*$C$10</f>
         <v>888.39973830122233</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="8">
         <f t="shared" si="0"/>
         <v>1509.1456246411108</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>1942.8754410689096</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="8">
         <f t="shared" si="0"/>
         <v>2245.9327110376494</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="8">
         <f t="shared" si="0"/>
         <v>2457.6859855469529</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="8">
         <f t="shared" si="0"/>
         <v>2605.6430012952883</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="8">
         <f t="shared" si="0"/>
         <v>2709.0240638072237</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="8">
         <f t="shared" si="0"/>
         <v>2781.2588546486095</v>
       </c>
@@ -3373,39 +3377,39 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="8">
         <f>(1-EXP(-3*$B$2*$F$14*D19))/3/$B$2/$F$14*$C$10</f>
         <v>0</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="8">
         <f t="shared" ref="E21:L21" si="1">(1-EXP(-3*$B$2*$F$14*E19))/3/$B$2/$F$14*$C$10</f>
         <v>647.62514702296983</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="8">
         <f t="shared" si="1"/>
         <v>868.54766709842954</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="8">
         <f t="shared" si="1"/>
         <v>943.91033653899854</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="8">
         <f t="shared" si="1"/>
         <v>969.61858911220145</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="8">
         <f t="shared" si="1"/>
         <v>978.38837202028708</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="8">
         <f t="shared" si="1"/>
         <v>981.37998306175928</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="8">
         <f t="shared" si="1"/>
         <v>982.40050280748835</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="8">
         <f t="shared" si="1"/>
         <v>982.74862979892714</v>
       </c>
@@ -3414,39 +3418,39 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="8">
         <f>(1-EXP(-5*$B$2*$F$14*D19))/5/$B$2/$F$14*$C$10</f>
         <v>0</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="8">
         <f t="shared" ref="E22:L22" si="2">(1-EXP(-5*$B$2*$F$14*E19))/5/$B$2/$F$14*$C$10</f>
         <v>491.53719710939055</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="8">
         <f t="shared" si="2"/>
         <v>573.39941934807871</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="8">
         <f t="shared" si="2"/>
         <v>587.03302321217222</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="8">
         <f t="shared" si="2"/>
         <v>589.30360846187466</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="8">
         <f t="shared" si="2"/>
         <v>589.68175920085457</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="8">
         <f t="shared" si="2"/>
         <v>589.74473766925166</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="8">
         <f t="shared" si="2"/>
         <v>589.75522631061278</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="8">
         <f t="shared" si="2"/>
         <v>589.75697312345858</v>
       </c>
